--- a/Connected Office Dataset.xlsx
+++ b/Connected Office Dataset.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Documents\Repos\CMPG-323-Project-5---35314389\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\nahume24\CMPG-323-Project-5-32210310\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FB60DD-A06A-4F8F-99AE-D2A23775281B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Zone" sheetId="1" r:id="rId1"/>
@@ -342,7 +341,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -912,22 +911,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.61328125" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,7 +940,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -971,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -986,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1001,7 +1000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1016,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1031,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1046,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1061,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1082,26 +1081,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08439157-EFCA-47CB-8108-F53748A39E5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.84375" customWidth="1"/>
-    <col min="8" max="8" width="14.53515625" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +1126,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -1154,7 +1153,7 @@
         <v>Online</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
@@ -1181,7 +1180,7 @@
         <v>Offline</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -1208,7 +1207,7 @@
         <v>Online</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -1235,7 +1234,7 @@
         <v>Online</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>49</v>
       </c>
@@ -1262,7 +1261,7 @@
         <v>Offline</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -1289,7 +1288,7 @@
         <v>Offline</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
@@ -1316,7 +1315,7 @@
         <v>Online</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
@@ -1343,7 +1342,7 @@
         <v>Offline</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>59</v>
       </c>
@@ -1377,22 +1376,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31A4267-E70A-4E9F-9C7A-6414D4287864}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="137.765625" customWidth="1"/>
-    <col min="4" max="4" width="13.84375" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="137.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1405,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>63</v>
       </c>
@@ -1421,7 +1420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="77.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="77.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>66</v>
       </c>
@@ -1436,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>69</v>
       </c>
@@ -1451,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>72</v>
       </c>
@@ -1466,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>75</v>
       </c>
@@ -1481,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>78</v>
       </c>
@@ -1496,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>81</v>
       </c>
@@ -1517,23 +1516,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC903D32-5F9E-4786-89D6-996B7E75E220}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.4609375" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1549,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
@@ -1568,7 +1567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>88</v>
       </c>
@@ -1586,7 +1585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>90</v>
       </c>
@@ -1604,7 +1603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>92</v>
       </c>
@@ -1622,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>94</v>
       </c>
@@ -1646,6 +1645,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a090801-4708-43a5-9598-e4e2166c002c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4f4a8c57-659f-4264-b765-bd165a88863b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A38BD02CE626854CB2A69241B23A3E9B" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3995f0f3d16fb037e2c25f34d1e51555">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7a090801-4708-43a5-9598-e4e2166c002c" xmlns:ns3="4f4a8c57-659f-4264-b765-bd165a88863b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66ec43485dfc5a4a75bbf1242e9d13e6" ns2:_="" ns3:_="">
     <xsd:import namespace="7a090801-4708-43a5-9598-e4e2166c002c"/>
@@ -1868,27 +1887,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B45281D-5D5A-4087-8014-4B4FA16E83A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="4f4a8c57-659f-4264-b765-bd165a88863b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="7a090801-4708-43a5-9598-e4e2166c002c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a090801-4708-43a5-9598-e4e2166c002c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4f4a8c57-659f-4264-b765-bd165a88863b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A227DC9-4D6F-4F55-89DE-623758C7FB72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B6EE518-5DC1-4AFD-B150-7E05CC0C76D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1905,23 +1929,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A227DC9-4D6F-4F55-89DE-623758C7FB72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B45281D-5D5A-4087-8014-4B4FA16E83A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7a090801-4708-43a5-9598-e4e2166c002c"/>
-    <ds:schemaRef ds:uri="4f4a8c57-659f-4264-b765-bd165a88863b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>